--- a/imageCreationExcel/back/0901-1/0901-1_14.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_14.xlsx
@@ -486,41 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2860964733234318</v>
+        <v>0.8028260653918713</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.765991307630824</v>
+        <v>1.052956965114941</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>28.44152447455184</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_C_sharpness0.29_brightness5.8.jpg</t>
+          <t>1_P_contrast0.8_gamma1.1_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -530,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,7 +537,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29.57720664505633</v>
+        <v>2.023848615708564</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,24 +545,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.765045068229721</v>
+        <v>0.8388187292628841</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1.113816789788772</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_E_brightness30.0_gamma0.77.jpg</t>
+          <t>2_P_brightness2.0_gamma0.84_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -574,41 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.017549191721693</v>
+        <v>1.183876359728771</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5409905446155397</v>
+        <v>18.02132355009676</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1.016605017963612</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_7_gamma1.0_sharpness0.54.jpg</t>
+          <t>3_J_contrast1.2_brightness18.0_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -618,39 +612,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.059613562969046</v>
+        <v>1.00597327349428</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8744585539670398</v>
+        <v>23.92516609060134</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>17.64934581674033</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_8_gamma1.1_sharpness0.87_equalization18.0.jpg</t>
+          <t>4_E_contrast1.0_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -660,41 +656,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6.405897458658217</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9385109374546119</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1.042625870165403</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10.26492637651566</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H6" t="n">
+        <v>1.197301105464869</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_S_contrast1.0_equalization10.0.jpg</t>
+          <t>5_I_brightness6.4_gamma0.94_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -704,39 +698,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5148165004122666</v>
+        <v>0.4814263892625747</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.827081461279271</v>
+        <v>22.30934018590974</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>26.50008760168555</v>
+        <v>0.9493689060681868</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_9_gamma0.51_sharpness0.83_equalization27.0.jpg</t>
+          <t>6_P_sharpness0.48_brightness22.0_gamma0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -746,7 +740,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -755,32 +749,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7691786158784415</v>
+        <v>0.6252876814217448</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8144256996219592</v>
+        <v>22.90358793869571</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8063441037419737</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_B_gamma0.77_sharpness0.81.jpg</t>
+          <t>7_I_gamma0.63_brightness23.0_contrast0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -790,41 +782,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9868912995550612</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>20.78202406917934</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>11.57013461811627</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0.8395175503883315</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H9" t="n">
+        <v>1.038111843477796</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_J_brightness21.0_contrast0.84.jpg</t>
+          <t>8_3_gamma0.99_brightness12.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -834,7 +824,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -843,32 +833,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9038198958994771</v>
+        <v>1.079233583973917</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1680103891832874</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>27.26596339014826</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H10" t="n">
+        <v>24.19245407143285</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_9_contrast0.9_equalization27.0.jpg</t>
+          <t>9_8_contrast1.1_sharpness0.17_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -878,7 +866,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -887,32 +875,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2272643178567526</v>
+        <v>0.09002023694855277</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25.77041571562177</v>
+        <v>0.9649177550877309</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>21.389863474908</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_1_sharpness0.23_brightness26.0.jpg</t>
+          <t>10_S_sharpness0.09_contrast0.96_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -922,16 +908,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8342079881883034</v>
+        <v>0.8846598238995631</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -939,22 +925,24 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9378128637167003</v>
+        <v>0.5882578405906049</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>23.31175389977788</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_7_contrast0.83_gamma0.94_equalization23.0.jpg</t>
+          <t>11_I_sharpness0.88_gamma0.59.jpg</t>
         </is>
       </c>
     </row>
@@ -964,39 +952,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8585756380144849</v>
+        <v>1.054896825583841</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.6833163174339718</v>
+        <v>16.00712786662582</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8.088276656855136</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_T_gamma0.86_sharpness0.68_brightness8.1.jpg</t>
+          <t>12_C_contrast1.1_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1006,24 +996,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22.49402243453267</v>
+        <v>0.8815726431306099</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9509482829446487</v>
+        <v>1.041034464414821</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1040,7 +1030,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_0_brightness22.0_gamma0.95.jpg</t>
+          <t>13_7_gamma0.88_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1040,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1059,30 +1049,32 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.02876598393014362</v>
+        <v>0.04543540590124373</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.6901678259906019</v>
+        <v>28.74497447531836</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>17.79033222050355</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_B_sharpness0.029_gamma0.69_equalization18.0.jpg</t>
+          <t>14_Q_sharpness0.045_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1092,16 +1084,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.182133475725594</v>
+        <v>1.05346015798361</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1109,22 +1101,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.4175209747088982</v>
+        <v>0.7386073340683581</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>13.4947527571389</v>
+        <v>28.62231457989115</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_C_contrast1.2_sharpness0.42_equalization13.0.jpg</t>
+          <t>15_P_gamma1.1_sharpness0.74_brightness29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1134,16 +1126,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.5147075440841401</v>
+        <v>0.8052968486381136</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1151,7 +1143,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.6643129111542317</v>
+        <v>0.3006478319798617</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1159,14 +1151,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7.910942056580412</v>
+        <v>15.92440688813369</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_C_gamma0.51_sharpness0.66_equalization7.9.jpg</t>
+          <t>16_3_contrast0.81_sharpness0.3_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1176,16 +1168,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5875633974137295</v>
+        <v>0.113911096241418</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1193,22 +1185,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.147819260153312</v>
+        <v>0.8613364079319231</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.2866134691383342</v>
+        <v>8.387611836373161</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_3_gamma0.59_contrast1.1_sharpness0.29.jpg</t>
+          <t>17_B_sharpness0.11_contrast0.86_equalization8.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1218,24 +1210,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6248105327970132</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>1.052333020230057</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F19" t="n">
-        <v>0.3279906424164023</v>
+        <v>1.054960671218383</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1248,11 +1240,11 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_0_contrast1.1_sharpness0.33.jpg</t>
+          <t>18_8_gamma0.62_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1254,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1271,30 +1263,32 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8203932906372284</v>
+        <v>1.075858932041338</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.4395339339402333</v>
+        <v>0.8853199506898606</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>25.70534248403055</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_T_contrast0.82_sharpness0.44_equalization26.0.jpg</t>
+          <t>19_P_contrast1.1_gamma0.89.jpg</t>
         </is>
       </c>
     </row>
@@ -1304,39 +1298,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.7935918463255149</v>
+        <v>26.59341302481505</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.027674113359005</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0.9450992099237518</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H21" t="n">
-        <v>29.02618343938083</v>
+        <v>1.085631758578199</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_7_gamma0.79_contrast0.95_equalization29.0.jpg</t>
+          <t>20_S_brightness27.0_gamma1.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1346,41 +1340,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.3221582005531638</v>
+        <v>14.50778907689296</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>26.12857755783307</v>
+        <v>1.031337336700843</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8573739547785415</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_2_sharpness0.32_equalization26.0.jpg</t>
+          <t>21_9_brightness15.0_contrast1.0_sharpness0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1382,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1399,32 +1391,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.050129645814908</v>
+        <v>1.070200664527676</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.6048608603085015</v>
+        <v>1.247194224732789</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.7281724592408864</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_E_contrast1.1_gamma0.6.jpg</t>
+          <t>22_7_contrast1.1_brightness1.2_sharpness0.73.jpg</t>
         </is>
       </c>
     </row>
@@ -1434,24 +1424,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.7933473050557291</v>
+        <v>22.21937332614411</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8892209629832178</v>
+        <v>0.4950345007133465</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1464,11 +1454,11 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_J_sharpness0.79_gamma0.89.jpg</t>
+          <t>23_I_brightness22.0_sharpness0.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1478,41 +1468,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.6237085305929043</v>
+        <v>0.5384078480864</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.0286722025789</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>13.32606238581626</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H25" t="n">
+        <v>15.72073509291772</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_E_sharpness0.62_equalization13.0.jpg</t>
+          <t>24_1_gamma0.54_contrast1.0_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1522,41 +1510,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5673995151183784</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.10605380531637</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>2.305817821161344</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.7717556079825825</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H26" t="n">
+        <v>19.050371478443</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_0_brightness2.3_sharpness0.77.jpg</t>
+          <t>25_C_gamma0.57_contrast1.1_brightness19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1566,16 +1552,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.825310191347184</v>
+        <v>20.56528448746521</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1583,22 +1569,24 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.7030384250986603</v>
+        <v>0.6043151479113225</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>26.73679424786317</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_9_contrast0.83_sharpness0.7_equalization27.0.jpg</t>
+          <t>26_B_brightness21.0_sharpness0.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1605,30 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.5397357197733473</v>
+        <v>0.8586087915338165</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.6309763245890881</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>14.75378078325767</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H28" t="n">
+        <v>7.197757513507936</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_7_gamma0.54_equalization15.0.jpg</t>
+          <t>27_7_gamma0.86_sharpness0.63_equalization7.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1652,16 +1638,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>19.87579158283223</v>
+        <v>0.5892369315169562</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1669,24 +1655,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.087818547453821</v>
+        <v>1.105083613958597</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>24.44936450788417</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_8_brightness20.0_contrast1.1.jpg</t>
+          <t>28_1_gamma0.59_contrast1.1_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1696,16 +1680,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8509779175694553</v>
+        <v>0.1478036333202851</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1713,7 +1697,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>19.22741787664568</v>
+        <v>15.38294892596394</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1730,7 +1714,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_Q_contrast0.85_equalization19.0.jpg</t>
+          <t>29_9_sharpness0.15_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1724,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1749,30 +1733,30 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.7663772446114586</v>
+        <v>0.7291095579283865</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.195584107821232</v>
+        <v>0.01540730936649159</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.1966668157506715</v>
+        <v>4.350082993162068</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_B_gamma0.77_contrast1.2_sharpness0.2.jpg</t>
+          <t>30_2_gamma0.73_sharpness0.015_equalization4.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1787,36 +1771,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.7330697420443241</v>
+        <v>0.800756496694785</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.7391002348094361</v>
+        <v>1.18369492672956</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6393443826352765</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_S_gamma0.73_sharpness0.74.jpg</t>
+          <t>31_S_sharpness0.8_contrast1.2_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -1826,24 +1808,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.7989925555409086</v>
+        <v>1.045739081693549</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8747837155463597</v>
+        <v>0.2455306323585099</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1851,14 +1833,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>17.70590890397332</v>
+        <v>8.608024660810957</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_C_sharpness0.8_contrast0.87_equalization18.0.jpg</t>
+          <t>32_I_contrast1.0_sharpness0.25_equalization8.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1868,39 +1850,41 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8071046476135897</v>
+        <v>0.7320205833886567</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.3035147863160733</v>
+        <v>29.5648018508008</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>11.78397559425475</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_8_contrast0.81_sharpness0.3_equalization12.0.jpg</t>
+          <t>33_P_gamma0.73_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1910,16 +1894,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.186767292192145</v>
+        <v>0.7766268228606166</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1927,7 +1911,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>20.4325257541498</v>
+        <v>11.02501826350129</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1935,14 +1919,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.1757774806507386</v>
+        <v>0.02429214781403188</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_P_contrast1.2_brightness20.0_sharpness0.18.jpg</t>
+          <t>34_2_gamma0.78_brightness11.0_sharpness0.024.jpg</t>
         </is>
       </c>
     </row>
@@ -1952,24 +1936,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8087340785930073</v>
+        <v>19.80781115947074</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>19.14681207496441</v>
+        <v>0.7684670587778037</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1977,14 +1961,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.9595238406095561</v>
+        <v>0.997141773664754</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_P_gamma0.81_brightness19.0_sharpness0.96.jpg</t>
+          <t>35_B_brightness20.0_gamma0.77_sharpness1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1994,24 +1978,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.74831852569131</v>
+        <v>28.38506113851316</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>20.85293504805895</v>
+        <v>0.7688553063425247</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2028,7 +2012,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_J_sharpness0.75_equalization21.0.jpg</t>
+          <t>36_S_brightness28.0_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -2038,24 +2022,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.808538325622242</v>
+        <v>0.9068835246583408</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6999157194958616</v>
+        <v>14.22018104975048</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2068,11 +2052,11 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_T_contrast0.81_sharpness0.7.jpg</t>
+          <t>37_0_sharpness0.91_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2066,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2091,32 +2075,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.446159478026272</v>
+        <v>24.22377002520636</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9364236839864001</v>
+        <v>0.8499957255017796</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0.4377604549119773</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_I_brightness1.4_contrast0.94.jpg</t>
+          <t>38_T_brightness24.0_gamma0.85_sharpness0.44.jpg</t>
         </is>
       </c>
     </row>
@@ -2126,16 +2108,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.4307844662384546</v>
+        <v>1.063199266461021</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2143,7 +2125,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.072800499754039</v>
+        <v>1.054693868163657</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2160,7 +2142,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_Q_sharpness0.43_gamma1.1.jpg</t>
+          <t>39_S_contrast1.1_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2170,16 +2152,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>28.61091134484982</v>
+        <v>1.102651684309178</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2187,7 +2169,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.083363402567766</v>
+        <v>0.7442258518669058</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2204,7 +2186,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_E_brightness29.0_gamma1.1.jpg</t>
+          <t>40_J_contrast1.1_gamma0.74.jpg</t>
         </is>
       </c>
     </row>
@@ -2214,16 +2196,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.0127493660695821</v>
+        <v>1.074017017431059</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2231,7 +2213,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5113902645457246</v>
+        <v>0.6450538000571888</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2244,11 +2226,11 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_2_brightness0.013_sharpness0.51.jpg</t>
+          <t>41_J_gamma1.1_sharpness0.65.jpg</t>
         </is>
       </c>
     </row>
@@ -2263,19 +2245,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.001628279503549</v>
+        <v>0.4229288969634544</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.374293706908056</v>
+        <v>0.6311425094133526</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2283,14 +2265,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>19.29855214896177</v>
+        <v>20.8779911176068</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_7_gamma1.0_sharpness0.37_equalization19.0.jpg</t>
+          <t>42_7_sharpness0.42_gamma0.63_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2282,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2309,32 +2291,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.5327704351053565</v>
+        <v>0.522595394747963</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>21.41685405209722</v>
+        <v>0.1233898160603419</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>20.79862695127225</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_8_gamma0.53_brightness21.0.jpg</t>
+          <t>43_B_gamma0.52_sharpness0.12_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2344,39 +2324,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.072143989875854</v>
+        <v>0.4760024637624199</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.5887259970524951</v>
+        <v>0.5469472821971972</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.8257183588798833</v>
+        <v>21.54486628092202</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_S_contrast1.1_sharpness0.59_gamma0.83.jpg</t>
+          <t>44_E_sharpness0.48_gamma0.55_brightness22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2386,39 +2366,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2.01498132125892</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.697256173072469</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>0.8267204047304305</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0.6909502160254689</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H46" t="n">
-        <v>15.08757712249038</v>
+        <v>1.090692950084982</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_8_contrast0.83_gamma0.69_equalization15.0.jpg</t>
+          <t>45_T_brightness2.0_sharpness0.7_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2428,41 +2408,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.5658041447783494</v>
+        <v>0.8474005543244143</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.5869617740946642</v>
+        <v>19.42663065652345</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0.7783339750329481</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_1_sharpness0.57_gamma0.59.jpg</t>
+          <t>46_S_gamma0.85_brightness19.0_sharpness0.78.jpg</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2450,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2481,32 +2459,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.5434297142768834</v>
+        <v>0.6331149490685782</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>7.538201534460201</v>
+        <v>27.04685509660621</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8451085605340554</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_I_gamma0.54_equalization7.5.jpg</t>
+          <t>47_P_gamma0.63_brightness27.0_sharpness0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -2516,39 +2492,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8305973278327643</v>
+        <v>0.863429754938369</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.03700470536486544</v>
+        <v>16.31389386477412</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>21.50795209668298</v>
+        <v>1.041325600053406</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_2_gamma0.83_sharpness0.037_equalization22.0.jpg</t>
+          <t>48_I_sharpness0.86_brightness16.0_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
